--- a/TA buku/Results/Sentiwordnet/hasil_PRICES.xlsx
+++ b/TA buku/Results/Sentiwordnet/hasil_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -46,39 +46,24 @@
     <t>1084394:3</t>
   </si>
   <si>
-    <t>1086415:2</t>
-  </si>
-  <si>
     <t>1090587:2</t>
   </si>
   <si>
-    <t>1145510:3</t>
-  </si>
-  <si>
     <t>1189674:4</t>
   </si>
   <si>
-    <t>1212346:4</t>
-  </si>
-  <si>
     <t>1310217:2</t>
   </si>
   <si>
     <t>1338124:2</t>
   </si>
   <si>
-    <t>1338124:4</t>
-  </si>
-  <si>
     <t>1340075:1</t>
   </si>
   <si>
     <t>1340075:4</t>
   </si>
   <si>
-    <t>1398844:3</t>
-  </si>
-  <si>
     <t>1471273:3</t>
   </si>
   <si>
@@ -94,9 +79,6 @@
     <t>1609375:3</t>
   </si>
   <si>
-    <t>1611489:1</t>
-  </si>
-  <si>
     <t>1615322:2</t>
   </si>
   <si>
@@ -124,12 +106,6 @@
     <t>454704:2</t>
   </si>
   <si>
-    <t>475512:3</t>
-  </si>
-  <si>
-    <t>490565:4</t>
-  </si>
-  <si>
     <t>493013:1</t>
   </si>
   <si>
@@ -178,27 +154,9 @@
     <t>757762:0</t>
   </si>
   <si>
-    <t>758263:3</t>
-  </si>
-  <si>
-    <t>BFC#4:2</t>
-  </si>
-  <si>
-    <t>Z#3:2</t>
-  </si>
-  <si>
     <t>TM#7:0</t>
   </si>
   <si>
-    <t>TFS#8:2</t>
-  </si>
-  <si>
-    <t>P#10:3</t>
-  </si>
-  <si>
-    <t>TR#8:4</t>
-  </si>
-  <si>
     <t>NP#3:6</t>
   </si>
   <si>
@@ -208,21 +166,9 @@
     <t>TM#5:3</t>
   </si>
   <si>
-    <t>TFS#5:2</t>
-  </si>
-  <si>
-    <t>TFS#5:30</t>
-  </si>
-  <si>
     <t>CLF#3:4</t>
   </si>
   <si>
-    <t>CLF#3:13</t>
-  </si>
-  <si>
-    <t>CLF#3:23</t>
-  </si>
-  <si>
     <t>CLF#3:28</t>
   </si>
   <si>
@@ -232,30 +178,15 @@
     <t>CLF#3:30</t>
   </si>
   <si>
-    <t>BG#5:7</t>
-  </si>
-  <si>
-    <t>DBG#7:5</t>
-  </si>
-  <si>
     <t>Z#6:5</t>
   </si>
   <si>
     <t>Z#6:13</t>
   </si>
   <si>
-    <t>CLF#6:5</t>
-  </si>
-  <si>
     <t>TR#5:6</t>
   </si>
   <si>
-    <t>FF#3:9</t>
-  </si>
-  <si>
-    <t>BFC#7:11</t>
-  </si>
-  <si>
     <t>The wine list is interesting and has many good values.</t>
   </si>
   <si>
@@ -268,39 +199,24 @@
     <t>The Prix Fixe menu is worth every penny and you get more than enough (both in quantity AND quality).</t>
   </si>
   <si>
-    <t>$6 and there is much tasty food, all of it fresh and continually refilled.</t>
-  </si>
-  <si>
     <t>Add to that great service and great food at a reasonable price and you have yourself the beginning of a great evening.</t>
   </si>
   <si>
-    <t>A large is $20, and toppings are about $3 each.</t>
-  </si>
-  <si>
     <t>Great wine selection, Gigondas is worth the price, and the house champagne is a great value.</t>
   </si>
   <si>
-    <t>Tiny dessert was $8.00...just plain overpriced for what it is.</t>
-  </si>
-  <si>
     <t>The price is reasonable although the service is poor.</t>
   </si>
   <si>
     <t>The spicy Tuna roll is huge and probably the best that I've had at this price range.</t>
   </si>
   <si>
-    <t>I have reservations about the all you can eat deal, however -- the choices are fairly limited and you can probably order more food than you can eat for less than $18 by just going off the menu.</t>
-  </si>
-  <si>
     <t>They have it all -- great price, food, and service.</t>
   </si>
   <si>
     <t>And it all comes at a very reasonable price (congee, noodles, and rice dishes are no more than $3-6 each).</t>
   </si>
   <si>
-    <t>Slightly above average wines start at $70+ with only one selection listed at $30+.</t>
-  </si>
-  <si>
     <t>Prices too high for this cramped and unappealing resturant.</t>
   </si>
   <si>
@@ -316,9 +232,6 @@
     <t>Try the Pad Thai, it's fabulous and their prices are so cheap!</t>
   </si>
   <si>
-    <t>Also, the sandwiches (nearing $7) didn't come with anything like chips or a side.</t>
-  </si>
-  <si>
     <t>They have authentic Indian at amazin prices.</t>
   </si>
   <si>
@@ -346,12 +259,6 @@
     <t>This place is not worth the prices.</t>
   </si>
   <si>
-    <t>If you like your music blasted and the system isnt that great and if you want to pay at least 100 dollar bottle minimun then you'll love it here.</t>
-  </si>
-  <si>
-    <t>You can get a completely delish martini in a glass (that's about 2 1/2 drinks) for $8.50 (I recommend the Vanilla Shanty, mmmm!) in a great homey setting with great music.</t>
-  </si>
-  <si>
     <t>Its location is good and the fact that Hutner College is near and their prices are very reasonable, makes students go back to Suan again and again.</t>
   </si>
   <si>
@@ -400,27 +307,9 @@
     <t>Baluchi's has solid food and a nice decor at reasonable prices.</t>
   </si>
   <si>
-    <t>$20 for all you can eat sushi cannot be beaten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was totally overpriced- fish and chips was about $15.... </t>
-  </si>
-  <si>
-    <t>I paid just about $60 for a good meal, though :)</t>
-  </si>
-  <si>
     <t>Excellent food for great prices</t>
   </si>
   <si>
-    <t>I do not think dinner in Manhattan should cost $400.00 where I am not swept off my feet.</t>
-  </si>
-  <si>
-    <t>And $11 for a plate of bland guacamole?</t>
-  </si>
-  <si>
-    <t>We were offered water for the table but were not told the Voss bottles of water were $8 a piece.</t>
-  </si>
-  <si>
     <t>Prices are fair across the board for both food and bev.</t>
   </si>
   <si>
@@ -430,21 +319,9 @@
     <t>Helpful service and average price per dish $10.</t>
   </si>
   <si>
-    <t>But $500 for a dinner for two that didn't include Wine?</t>
-  </si>
-  <si>
-    <t>Service was just ok, it is not what you'd expect for $500.</t>
-  </si>
-  <si>
     <t>I literally just got back home after visiting Casa La Femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
   </si>
   <si>
-    <t>However, our $14 drinks were were horrible!</t>
-  </si>
-  <si>
-    <t>I would not expect this for a $55 dinner.</t>
-  </si>
-  <si>
     <t>By the time we left our wallets were empy and so were our stomachs AND we missed the show we were supposed to see following our dinner, which would have been acceptable if we got to enjoy the experience of good food and belly dancers!</t>
   </si>
   <si>
@@ -454,75 +331,42 @@
     <t>I have never left a restaurant feeling as if i was abused, and wasted my hard earned money.</t>
   </si>
   <si>
-    <t>But if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for Indian food</t>
-  </si>
-  <si>
-    <t>Too bad I had paid an extra $2 for the stone bowl.</t>
-  </si>
-  <si>
     <t>My party had the BBE $29 fixe prix menu, which was such a wonderful deal since it also came with a flight of sake!</t>
   </si>
   <si>
     <t>Maybe it was the great company (I had friends visiting from Philly – yes, it was not a date this time) or the super reasonable price point, but I just can’t say enough good things about this brasserie.</t>
   </si>
   <si>
-    <t>They are extremely rude, not even apologizing for the horrible service we got and handing us a bill well over $500 for some drinks adn their pita bread!</t>
-  </si>
-  <si>
     <t>Price is high but the food is good, so I would come back again.</t>
   </si>
   <si>
-    <t>I took one bite from the $24 salmon, and I have never, in the 17 years I have been going to restaurants tasted salmon as fishy, as dry, and as bland as the one in Flatbush Farms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considering you will spend at least $60 a head, I expect better service. </t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
     <t>beat</t>
   </si>
   <si>
-    <t>well</t>
+    <t>worth|worth|worth|worth</t>
   </si>
   <si>
     <t>worth|more</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>reasonable|great</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>great|great|great</t>
   </si>
   <si>
-    <t>overpriced</t>
-  </si>
-  <si>
     <t>reasonable</t>
   </si>
   <si>
     <t>huge</t>
   </si>
   <si>
-    <t>limited</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>reasonable|-</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -538,9 +382,6 @@
     <t>cheap</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>authentic</t>
   </si>
   <si>
@@ -550,7 +391,7 @@
     <t>good</t>
   </si>
   <si>
-    <t>plate|-</t>
+    <t>plate</t>
   </si>
   <si>
     <t>great|great</t>
@@ -562,9 +403,6 @@
     <t>place</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -586,6 +424,9 @@
     <t>speedy|good</t>
   </si>
   <si>
+    <t>-|-</t>
+  </si>
+  <si>
     <t>side</t>
   </si>
   <si>
@@ -598,22 +439,13 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>bland</t>
-  </si>
-  <si>
     <t>fair</t>
   </si>
   <si>
-    <t>helpful|-</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>necessary</t>
   </si>
   <si>
     <t>empy</t>
@@ -625,13 +457,7 @@
     <t>wasted</t>
   </si>
   <si>
-    <t>complimentary</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>wonderful|-</t>
+    <t>wonderful</t>
   </si>
   <si>
     <t>great|super|super|super</t>
@@ -998,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1032,16 +858,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1055,16 +881,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1078,19 +904,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1101,16 +927,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G5">
         <v>0.25</v>
@@ -1124,19 +950,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G6">
-        <v>-0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1147,19 +973,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1170,19 +996,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1193,19 +1019,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1216,19 +1042,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G10">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1239,16 +1065,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G11">
         <v>0.5</v>
@@ -1262,19 +1088,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G12">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1285,19 +1111,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1308,16 +1134,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1331,19 +1157,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1354,19 +1180,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1377,19 +1203,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G17">
-        <v>-0.25</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1400,19 +1226,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1423,19 +1249,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1446,19 +1272,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1469,19 +1295,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1492,19 +1318,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1515,19 +1341,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G23">
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1538,19 +1364,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1561,19 +1387,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1584,19 +1410,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G26">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1607,19 +1433,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1630,19 +1456,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1653,16 +1479,16 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1676,19 +1502,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G30">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1699,19 +1525,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1722,19 +1548,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G32">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1745,16 +1571,16 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1768,19 +1594,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1791,19 +1617,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G35">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1814,19 +1640,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1837,19 +1663,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1860,16 +1686,16 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1883,19 +1709,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G39">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1906,16 +1732,16 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1929,19 +1755,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1952,19 +1778,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1975,19 +1801,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G43">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1998,19 +1824,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2021,19 +1847,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G45">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2044,16 +1870,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2064,16 +1893,16 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2087,19 +1916,19 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2110,19 +1939,19 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G49">
-        <v>1.375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2133,16 +1962,19 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2153,19 +1985,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G51">
-        <v>0.125</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2176,536 +2008,19 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G52">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" t="s">
-        <v>207</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" t="s">
-        <v>208</v>
-      </c>
-      <c r="G55">
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" t="s">
-        <v>166</v>
-      </c>
-      <c r="E58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" t="s">
-        <v>208</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" t="s">
-        <v>207</v>
-      </c>
-      <c r="G59">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" t="s">
-        <v>208</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" t="s">
-        <v>208</v>
-      </c>
-      <c r="F61" t="s">
-        <v>207</v>
-      </c>
-      <c r="G61">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" t="s">
-        <v>208</v>
-      </c>
-      <c r="F62" t="s">
-        <v>208</v>
-      </c>
-      <c r="G62">
-        <v>-0.625</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" t="s">
-        <v>208</v>
-      </c>
-      <c r="F63" t="s">
-        <v>208</v>
-      </c>
-      <c r="G63">
-        <v>-0.625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" t="s">
-        <v>208</v>
-      </c>
-      <c r="F64" t="s">
-        <v>208</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" t="s">
-        <v>200</v>
-      </c>
-      <c r="E65" t="s">
-        <v>208</v>
-      </c>
-      <c r="F65" t="s">
-        <v>208</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" t="s">
-        <v>208</v>
-      </c>
-      <c r="F66" t="s">
-        <v>208</v>
-      </c>
-      <c r="G66">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" t="s">
-        <v>202</v>
-      </c>
-      <c r="E67" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" t="s">
-        <v>208</v>
-      </c>
-      <c r="G67">
-        <v>-0.625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" t="s">
-        <v>207</v>
-      </c>
-      <c r="G68">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69">
-        <v>-0.625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" t="s">
-        <v>205</v>
-      </c>
-      <c r="E70" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" t="s">
-        <v>207</v>
-      </c>
-      <c r="G70">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" t="s">
-        <v>207</v>
-      </c>
-      <c r="G71">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" t="s">
-        <v>207</v>
-      </c>
-      <c r="G72">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E73" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" t="s">
-        <v>208</v>
-      </c>
-      <c r="G73">
         <v>-0.25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" t="s">
-        <v>194</v>
-      </c>
-      <c r="E74" t="s">
-        <v>208</v>
-      </c>
-      <c r="F74" t="s">
-        <v>208</v>
-      </c>
-      <c r="G74">
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F75" t="s">
-        <v>207</v>
-      </c>
-      <c r="G75">
-        <v>0.875</v>
       </c>
     </row>
   </sheetData>
